--- a/data/datasets/2028_team.xlsx
+++ b/data/datasets/2028_team.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cdpet\Documents\Post School Coursework\data_projects\cfb-analysis\data\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBF38FA-CB9B-475D-A36C-7EBC789FB746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="233">
   <si>
     <t>first_name</t>
   </si>
@@ -91,9 +97,6 @@
     <t>Emmett</t>
   </si>
   <si>
-    <t>Huber</t>
-  </si>
-  <si>
     <t>improviser</t>
   </si>
   <si>
@@ -115,12 +118,6 @@
     <t>elusive_back</t>
   </si>
   <si>
-    <t>Alfonso</t>
-  </si>
-  <si>
-    <t>Orlando</t>
-  </si>
-  <si>
     <t>JR</t>
   </si>
   <si>
@@ -139,12 +136,6 @@
     <t>Gay</t>
   </si>
   <si>
-    <t>Raysean</t>
-  </si>
-  <si>
-    <t>Plummer</t>
-  </si>
-  <si>
     <t>power_back</t>
   </si>
   <si>
@@ -181,18 +172,6 @@
     <t>route_runner</t>
   </si>
   <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Linkcoln</t>
-  </si>
-  <si>
-    <t>Vernon</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
     <t>Finau</t>
   </si>
   <si>
@@ -217,9 +196,6 @@
     <t>Blackburn</t>
   </si>
   <si>
-    <t>Dominique</t>
-  </si>
-  <si>
     <t>Addison</t>
   </si>
   <si>
@@ -334,9 +310,6 @@
     <t>RT</t>
   </si>
   <si>
-    <t>Daron</t>
-  </si>
-  <si>
     <t>Caleb</t>
   </si>
   <si>
@@ -403,9 +376,6 @@
     <t>Ahmad</t>
   </si>
   <si>
-    <t>Webber</t>
-  </si>
-  <si>
     <t>Luis</t>
   </si>
   <si>
@@ -421,36 +391,15 @@
     <t>DT</t>
   </si>
   <si>
-    <t>Darren</t>
-  </si>
-  <si>
-    <t>Bourne</t>
-  </si>
-  <si>
     <t>Marquise</t>
   </si>
   <si>
     <t>Stubbs</t>
   </si>
   <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Redfield</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>Sturm</t>
-  </si>
-  <si>
     <t>Mike</t>
   </si>
   <si>
-    <t>Beach</t>
-  </si>
-  <si>
     <t>Emanuel</t>
   </si>
   <si>
@@ -478,21 +427,9 @@
     <t>Thomas</t>
   </si>
   <si>
-    <t>Najee</t>
-  </si>
-  <si>
-    <t>Hyman</t>
-  </si>
-  <si>
     <t>pass_coverage</t>
   </si>
   <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Mattingly</t>
-  </si>
-  <si>
     <t>MLB</t>
   </si>
   <si>
@@ -502,12 +439,6 @@
     <t>Richardson</t>
   </si>
   <si>
-    <t>Patrick</t>
-  </si>
-  <si>
-    <t>Angel</t>
-  </si>
-  <si>
     <t>Dylan</t>
   </si>
   <si>
@@ -535,9 +466,6 @@
     <t>Eagles</t>
   </si>
   <si>
-    <t>Javion</t>
-  </si>
-  <si>
     <t>Randall</t>
   </si>
   <si>
@@ -577,21 +505,12 @@
     <t>Draper</t>
   </si>
   <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Addae</t>
-  </si>
-  <si>
     <t>Keshawn</t>
   </si>
   <si>
     <t>Lawrence</t>
   </si>
   <si>
-    <t>Cam</t>
-  </si>
-  <si>
     <t>FS</t>
   </si>
   <si>
@@ -613,27 +532,15 @@
     <t>Greg</t>
   </si>
   <si>
-    <t>Pepper</t>
-  </si>
-  <si>
     <t>Buck</t>
   </si>
   <si>
     <t>Robert</t>
   </si>
   <si>
-    <t>Ian</t>
-  </si>
-  <si>
-    <t>Ngakoue</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
-    <t>run_support</t>
-  </si>
-  <si>
     <t>Dayes</t>
   </si>
   <si>
@@ -665,13 +572,160 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Tangelo</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Hooey</t>
+  </si>
+  <si>
+    <t>Demarco</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Lockett</t>
+  </si>
+  <si>
+    <t>Gage</t>
+  </si>
+  <si>
+    <t>Keegan</t>
+  </si>
+  <si>
+    <t>Blizzard</t>
+  </si>
+  <si>
+    <t>Goings</t>
+  </si>
+  <si>
+    <t>Esteban</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>Treveon</t>
+  </si>
+  <si>
+    <t>Darnold</t>
+  </si>
+  <si>
+    <t>Ofisa</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Ted</t>
+  </si>
+  <si>
+    <t>Perkins</t>
+  </si>
+  <si>
+    <t>Gabe</t>
+  </si>
+  <si>
+    <t>Porcher</t>
+  </si>
+  <si>
+    <t>Rico</t>
+  </si>
+  <si>
+    <t>Rosas</t>
+  </si>
+  <si>
+    <t>Tevita</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Tyron</t>
+  </si>
+  <si>
+    <t>Milliner</t>
+  </si>
+  <si>
+    <t>Tye</t>
+  </si>
+  <si>
+    <t>Dillard</t>
+  </si>
+  <si>
+    <t>Leati</t>
+  </si>
+  <si>
+    <t>Mauti</t>
+  </si>
+  <si>
+    <t>Mitchell</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Bullocks</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>Angelo</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>Diabate</t>
+  </si>
+  <si>
+    <t>Cris</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Friend</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Zelenka</t>
+  </si>
+  <si>
+    <t>Virgin</t>
+  </si>
+  <si>
+    <t>StJohn</t>
+  </si>
+  <si>
+    <t>Elton</t>
+  </si>
+  <si>
+    <t>Sokol</t>
+  </si>
+  <si>
+    <t>2028_ovr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,36 +763,43 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf/>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Frame0" displayName="Frame0" ref="A1:J77" totalsRowShown="0">
-  <autoFilter ref="A1:J77"/>
-  <tableColumns count="10">
-    <tableColumn id="1" name="first_name" dataDxfId="0"/>
-    <tableColumn id="2" name="last_name" dataDxfId="0"/>
-    <tableColumn id="3" name="class" dataDxfId="0"/>
-    <tableColumn id="4" name="red_shirt" dataDxfId="0"/>
-    <tableColumn id="5" name="position" dataDxfId="0"/>
-    <tableColumn id="6" name="group" dataDxfId="0"/>
-    <tableColumn id="7" name="secondary_group" dataDxfId="0"/>
-    <tableColumn id="8" name="team" dataDxfId="0"/>
-    <tableColumn id="9" name="archetype" dataDxfId="0"/>
-    <tableColumn id="10" name="dev_trait" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Frame0" displayName="Frame0" ref="A1:K86" totalsRowShown="0">
+  <autoFilter ref="A1:K86" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="first_name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="last_name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="class"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="red_shirt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="position"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="group"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="secondary_group"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="team"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="archetype"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="dev_trait"/>
+    <tableColumn id="11" xr3:uid="{BFA54611-48F1-4B34-BEA0-389ECA7D95F7}" name="2028_ovr"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -776,7 +837,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -810,6 +871,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -844,9 +906,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1019,14 +1082,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1057,8 +1135,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1089,8 +1170,11 @@
       <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1121,8 +1205,11 @@
       <c r="J3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="K3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -1130,10 +1217,10 @@
         <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D4" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>13</v>
@@ -1153,16 +1240,19 @@
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="K4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
@@ -1180,82 +1270,91 @@
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K5">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>188</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D7" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>23</v>
@@ -1264,126 +1363,138 @@
         <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="K8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D9" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="K9">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="b">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="K10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
@@ -1392,318 +1503,348 @@
         <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="K12">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="K13">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D15" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K15">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>187</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>189</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D17" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>61</v>
+        <v>190</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>65</v>
+        <v>193</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>66</v>
+        <v>194</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D19" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19">
         <v>64</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>125</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>68</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>71</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D21" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>12</v>
@@ -1712,926 +1853,1013 @@
         <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D23" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="K23">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>83</v>
+        <v>196</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>84</v>
+        <v>197</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D25" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D26" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D27" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D28" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K28">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D29" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29">
         <v>91</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D30" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D31" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K31">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D32" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J32" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J33" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D34" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D35" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>91</v>
+      </c>
+      <c r="K35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K36">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>199</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D37" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="K37">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>200</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>201</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D38" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="J38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D39" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>122</v>
+        <v>70</v>
       </c>
       <c r="J39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K40">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D41" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J40" s="1" t="s">
+      <c r="D42" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="1" t="b">
+      <c r="K43">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J43" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>135</v>
+        <v>206</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>35</v>
+        <v>185</v>
       </c>
       <c r="D45" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D46" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="F46" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D47" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K47">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>142</v>
+        <v>209</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D48" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>143</v>
+        <v>105</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K49">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="C50" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J49" s="1" t="s">
+      <c r="F50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D50" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="J50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>23</v>
@@ -2640,542 +2868,593 @@
         <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D52" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K52">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D53" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J52" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="F54" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>160</v>
+        <v>212</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D55" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>159</v>
+        <v>122</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>149</v>
+        <v>102</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K55">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D56" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D57" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="J57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K58">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="b">
         <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="J59" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D60" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="J60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>173</v>
+        <v>68</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>174</v>
+        <v>218</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D61" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>33</v>
+      </c>
+      <c r="K61">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D62" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="J62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>181</v>
+        <v>142</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D63" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>180</v>
+        <v>104</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+        <v>20</v>
+      </c>
+      <c r="K63">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D64" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K64">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D65" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="J65" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="A65" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="J65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>187</v>
+        <v>144</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>188</v>
+        <v>145</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D66" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D67" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>12</v>
@@ -3184,310 +3463,655 @@
         <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D69" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="J69" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J70" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="A70" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H70" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="J70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>201</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D71" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>192</v>
+        <v>149</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>203</v>
+        <v>156</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D72" s="1" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>205</v>
+        <v>154</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10">
+        <v>16</v>
+      </c>
+      <c r="K72">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D73" s="1" t="b">
         <v>0</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="J73" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K73">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K74">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>220</v>
+      </c>
+      <c r="B75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I75" t="s">
+        <v>154</v>
+      </c>
+      <c r="J75" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="A74" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C74" s="1" t="s">
+      <c r="K75">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>221</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="J74" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="A75" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="H75" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="J75" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="A76" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="1" t="b">
-        <v>1</v>
+      <c r="D76" t="b">
+        <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J76" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
+        <v>103</v>
+      </c>
+      <c r="I76" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" t="s">
+        <v>20</v>
+      </c>
+      <c r="K76">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>214</v>
+        <v>166</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>215</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>23</v>
+        <v>185</v>
       </c>
       <c r="D77" s="1" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>210</v>
+        <v>150</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>211</v>
+        <v>103</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>80</v>
+        <v>168</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="K77">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K78">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K79">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+      <c r="B80" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="b">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I80" t="s">
+        <v>165</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+      <c r="K80">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K82">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K84">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D85" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
